--- a/Document/스킬 시스템_강일구.xlsx
+++ b/Document/스킬 시스템_강일구.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\Gorilla-box\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,6 @@
     <sheet name="시스템 룰 " sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -463,19 +462,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -503,13 +502,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>11205</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:rowOff>95007</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>88154</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>179293</xdr:rowOff>
+      <xdr:rowOff>195859</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -532,8 +531,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7810499" y="4168588"/>
-          <a:ext cx="5545420" cy="3294529"/>
+          <a:off x="7838270" y="4078942"/>
+          <a:ext cx="5576601" cy="3206830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -880,7 +879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -921,13 +920,13 @@
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="1" t="s">
         <v>17</v>
       </c>
@@ -939,13 +938,13 @@
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
@@ -953,11 +952,11 @@
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
@@ -965,31 +964,31 @@
       <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
@@ -1078,13 +1077,13 @@
       <c r="M37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N37" s="10" t="s">
+      <c r="N37" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
       <c r="S37" s="1" t="s">
         <v>32</v>
       </c>
@@ -1096,11 +1095,11 @@
       <c r="M38" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N38" s="11"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="13"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="11"/>
       <c r="S38" s="2"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.3">
@@ -1110,11 +1109,11 @@
       <c r="M39" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N39" s="11"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="13"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="11"/>
       <c r="S39" s="2"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.3">
@@ -1127,11 +1126,11 @@
       <c r="M40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N40" s="11"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="13"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="11"/>
       <c r="S40" s="2"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.3">
@@ -1144,11 +1143,11 @@
       <c r="M41" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N41" s="11"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="13"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="11"/>
       <c r="S41" s="2"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.3">
@@ -1181,17 +1180,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="N40:R40"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="N40:R40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1227,13 +1226,13 @@
       <c r="B5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="7" t="s">
         <v>45</v>
       </c>
@@ -1248,11 +1247,11 @@
       <c r="B6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
         <v>52</v>
@@ -1263,11 +1262,11 @@
       <c r="B7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
         <v>55</v>
@@ -1278,11 +1277,11 @@
       <c r="B8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="s">
         <v>55</v>
@@ -1291,11 +1290,11 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>

--- a/Document/스킬 시스템_강일구.xlsx
+++ b/Document/스킬 시스템_강일구.xlsx
@@ -172,10 +172,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">캐릭터 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 스킬을 사용 시 재사용 대기 시간이 생성 되며 대기 시간이 다 지니기 전에 다시 사용 할 수 없다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -216,83 +212,87 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> - UI의 감소 값은 3초 마다 표기한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">캐릭터가 은신 상태로 전환 됨 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">지속 감소 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀로그램</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무력화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">일반 감소 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3 지속 감소 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4 일반 감소 흐름도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2 일반감소 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 감소 된 자원을 자원창 UI에 표기한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬을 사용 시 자원을 만족하지 못하는 경우 UI로 사용 불가함을 표기한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬을 사용 시 자원을 만족하지 못하면 스킬을 사용 할 수 없다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 버튼입력 직 후 자원이 감소한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬 사용 중 감소 자원을 만족하지 못하는 경우 스킬이 자동으로 해제 됨 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬 사용 시 자원 감소 값을 만족하지 못하는 경우 스킬이 작동하지 않음 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - UI 지속적으로 감소되고 있는 값을 표기한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> - 사용이 종료 되면 자원 감소를 중지 시킨다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - UI의 감소 값은 3초 마다 표기한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">캐릭터가 은신 상태로 전환 됨 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">지속 감소 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>홀로그램</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무력화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">일반 감소 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬 사용 시 자원 감소 값을 만족하지 못하는 경우 스킬이 작동하지 않음 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬 사용 중 감소 자원을 만족하지 못하는 경우 스킬이 자동으로 해제 됨 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">3.1 지속감소 룰 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3.3 지속 감소 흐름도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4 일반 감소 흐름도 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 일반감소 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬을 사용 시 자원을 만족하지 못하면 스킬을 사용 할 수 없다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬을 사용 시 자원을 만족하지 못하는 경우 UI로 사용 불가함을 표기한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 버튼입력 직 후 자원이 감소한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 감소 된 자원을 자원창 UI에 표기한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - UI 지속적으로 감소되고 있는 값을 표기한다.</t>
+    <t xml:space="preserve">크로스 헤어 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -462,6 +462,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -469,12 +475,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -505,8 +505,8 @@
       <xdr:rowOff>95007</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>88154</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>518849</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>195859</xdr:rowOff>
     </xdr:to>
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -888,6 +888,7 @@
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
     <col min="8" max="8" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.3">
@@ -920,13 +921,13 @@
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="1" t="s">
         <v>17</v>
       </c>
@@ -938,13 +939,13 @@
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
@@ -952,11 +953,11 @@
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
@@ -964,31 +965,31 @@
       <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
@@ -1017,57 +1018,57 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.3">
@@ -1077,13 +1078,13 @@
       <c r="M37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N37" s="12" t="s">
+      <c r="N37" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
       <c r="S37" s="1" t="s">
         <v>32</v>
       </c>
@@ -1095,11 +1096,11 @@
       <c r="M38" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N38" s="9"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="13"/>
       <c r="S38" s="2"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.3">
@@ -1109,16 +1110,16 @@
       <c r="M39" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N39" s="9"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="13"/>
       <c r="S39" s="2"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L40" s="3">
         <v>3</v>
@@ -1126,71 +1127,71 @@
       <c r="M40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N40" s="9"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="13"/>
       <c r="S40" s="2"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L41" s="3">
         <v>4</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N41" s="9"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="N41" s="11"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="13"/>
       <c r="S41" s="2"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.3">
       <c r="L46" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="N40:R40"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="N40:R40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1224,77 +1225,77 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>

--- a/Document/스킬 시스템_강일구.xlsx
+++ b/Document/스킬 시스템_강일구.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
     <sheet name="시스템 내용 (구현 목록))" sheetId="2" r:id="rId2"/>
-    <sheet name="시스템 룰 " sheetId="3" r:id="rId3"/>
+    <sheet name="은신" sheetId="3" r:id="rId3"/>
+    <sheet name="홀로그램 " sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>작성일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -293,6 +295,26 @@
   </si>
   <si>
     <t xml:space="preserve">크로스 헤어 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">홀로그램 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 시스템 개요 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터를 따돌리기 위한 용도의 스킬 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 근현대화 사회에 어울리는 형태의 스킬로 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -300,7 +322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,6 +358,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -434,7 +465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -462,20 +493,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -879,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -921,13 +955,13 @@
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="1" t="s">
         <v>17</v>
       </c>
@@ -939,13 +973,13 @@
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
@@ -953,11 +987,11 @@
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
@@ -965,31 +999,31 @@
       <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
@@ -1078,13 +1112,13 @@
       <c r="M37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N37" s="10" t="s">
+      <c r="N37" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
       <c r="S37" s="1" t="s">
         <v>32</v>
       </c>
@@ -1096,11 +1130,11 @@
       <c r="M38" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N38" s="11"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="13"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="11"/>
       <c r="S38" s="2"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.3">
@@ -1110,11 +1144,11 @@
       <c r="M39" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N39" s="11"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="13"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="11"/>
       <c r="S39" s="2"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.3">
@@ -1127,11 +1161,11 @@
       <c r="M40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N40" s="11"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="13"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="11"/>
       <c r="S40" s="2"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.3">
@@ -1144,11 +1178,11 @@
       <c r="M41" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="N41" s="11"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="13"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="11"/>
       <c r="S41" s="2"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.3">
@@ -1181,17 +1215,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="N40:R40"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="N40:R40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1204,7 +1238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J9"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:I32"/>
     </sheetView>
   </sheetViews>
@@ -1227,13 +1261,13 @@
       <c r="B5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="7" t="s">
         <v>44</v>
       </c>
@@ -1248,11 +1282,11 @@
       <c r="B6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
         <v>49</v>
@@ -1263,11 +1297,11 @@
       <c r="B7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
         <v>52</v>
@@ -1278,11 +1312,11 @@
       <c r="B8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="s">
         <v>52</v>
@@ -1291,11 +1325,11 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -1311,4 +1345,46 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>